--- a/Lista de Oportunidades.xlsx
+++ b/Lista de Oportunidades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THEMARTI\Code\bbts-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THEMARTI\Oracle Content - Accounts\Oracle Content\Relatório de Consumo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6678923-3B6F-47DB-B869-46E378B25F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4056279F-EC12-4A78-AA0F-6AD6ADA203DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24435" yWindow="-60" windowWidth="19470" windowHeight="11220" xr2:uid="{C9EC4A66-5119-430A-9D7A-E0EE22064825}"/>
+    <workbookView xWindow="-38520" yWindow="-5685" windowWidth="38640" windowHeight="21240" xr2:uid="{C9EC4A66-5119-430A-9D7A-E0EE22064825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>data_inicio</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>PREVI Move to Cloud</t>
+  </si>
+  <si>
+    <t>Won</t>
   </si>
 </sst>
 </file>
@@ -524,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C15CE3-F647-499B-A0DD-75465C37E111}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -605,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -628,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
